--- a/case3.xlsx
+++ b/case3.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="26130"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="26327"/>
   <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="E:\JavaProjects\configuration and scheduling of MRFL\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="E:\JavaProjects\scheduling_of_rfl\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{20103D7F-1B0B-484E-BD65-6A1F26984FCC}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{BB881C6D-3D6A-44A4-A6C5-28D9E0751B4A}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="1008" yWindow="-108" windowWidth="22140" windowHeight="13176" activeTab="3" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="4152" yWindow="3036" windowWidth="16440" windowHeight="9420" activeTab="3" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="process" sheetId="1" r:id="rId1"/>
@@ -7911,8 +7911,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{017BCED2-D5B8-484B-8E96-FEE5C72F2B8F}">
   <dimension ref="A1:C61"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A61" workbookViewId="0">
-      <selection activeCell="A62" sqref="A62:F84"/>
+    <sheetView tabSelected="1" topLeftCell="A45" workbookViewId="0">
+      <selection activeCell="C2" sqref="C2:C61"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="13.8" x14ac:dyDescent="0.25"/>
@@ -7940,7 +7940,7 @@
         <v>66</v>
       </c>
       <c r="C2">
-        <v>15</v>
+        <v>10</v>
       </c>
     </row>
     <row r="3" spans="1:3" x14ac:dyDescent="0.25">
@@ -7951,7 +7951,7 @@
         <v>66</v>
       </c>
       <c r="C3">
-        <v>15</v>
+        <v>10</v>
       </c>
     </row>
     <row r="4" spans="1:3" x14ac:dyDescent="0.25">
@@ -7962,7 +7962,7 @@
         <v>60</v>
       </c>
       <c r="C4">
-        <v>15</v>
+        <v>10</v>
       </c>
     </row>
     <row r="5" spans="1:3" x14ac:dyDescent="0.25">
@@ -7973,7 +7973,7 @@
         <v>66</v>
       </c>
       <c r="C5">
-        <v>15</v>
+        <v>10</v>
       </c>
     </row>
     <row r="6" spans="1:3" x14ac:dyDescent="0.25">
@@ -7984,7 +7984,7 @@
         <v>60</v>
       </c>
       <c r="C6">
-        <v>15</v>
+        <v>10</v>
       </c>
     </row>
     <row r="7" spans="1:3" x14ac:dyDescent="0.25">
@@ -7995,7 +7995,7 @@
         <v>60</v>
       </c>
       <c r="C7">
-        <v>15</v>
+        <v>10</v>
       </c>
     </row>
     <row r="8" spans="1:3" x14ac:dyDescent="0.25">
@@ -8006,7 +8006,7 @@
         <v>60</v>
       </c>
       <c r="C8">
-        <v>15</v>
+        <v>10</v>
       </c>
     </row>
     <row r="9" spans="1:3" ht="14.4" thickBot="1" x14ac:dyDescent="0.3">
@@ -8017,7 +8017,7 @@
         <v>60</v>
       </c>
       <c r="C9">
-        <v>15</v>
+        <v>10</v>
       </c>
     </row>
     <row r="10" spans="1:3" x14ac:dyDescent="0.25">
@@ -8127,7 +8127,7 @@
         <v>30</v>
       </c>
       <c r="C19">
-        <v>5</v>
+        <v>10</v>
       </c>
     </row>
     <row r="20" spans="1:3" x14ac:dyDescent="0.25">
@@ -8138,7 +8138,7 @@
         <v>30</v>
       </c>
       <c r="C20">
-        <v>5</v>
+        <v>10</v>
       </c>
     </row>
     <row r="21" spans="1:3" x14ac:dyDescent="0.25">
@@ -8149,7 +8149,7 @@
         <v>30</v>
       </c>
       <c r="C21">
-        <v>5</v>
+        <v>10</v>
       </c>
     </row>
     <row r="22" spans="1:3" x14ac:dyDescent="0.25">
@@ -8160,7 +8160,7 @@
         <v>30</v>
       </c>
       <c r="C22">
-        <v>5</v>
+        <v>10</v>
       </c>
     </row>
     <row r="23" spans="1:3" x14ac:dyDescent="0.25">
@@ -8171,7 +8171,7 @@
         <v>30</v>
       </c>
       <c r="C23">
-        <v>5</v>
+        <v>10</v>
       </c>
     </row>
     <row r="24" spans="1:3" x14ac:dyDescent="0.25">
@@ -8182,7 +8182,7 @@
         <v>30</v>
       </c>
       <c r="C24">
-        <v>5</v>
+        <v>10</v>
       </c>
     </row>
     <row r="25" spans="1:3" x14ac:dyDescent="0.25">
@@ -8193,7 +8193,7 @@
         <v>30</v>
       </c>
       <c r="C25">
-        <v>5</v>
+        <v>10</v>
       </c>
     </row>
     <row r="26" spans="1:3" x14ac:dyDescent="0.25">
@@ -8204,7 +8204,7 @@
         <v>30</v>
       </c>
       <c r="C26">
-        <v>5</v>
+        <v>10</v>
       </c>
     </row>
     <row r="27" spans="1:3" x14ac:dyDescent="0.25">
@@ -8215,7 +8215,7 @@
         <v>30</v>
       </c>
       <c r="C27">
-        <v>5</v>
+        <v>10</v>
       </c>
     </row>
     <row r="28" spans="1:3" x14ac:dyDescent="0.25">
@@ -8226,7 +8226,7 @@
         <v>30</v>
       </c>
       <c r="C28">
-        <v>5</v>
+        <v>10</v>
       </c>
     </row>
     <row r="29" spans="1:3" x14ac:dyDescent="0.25">
@@ -8237,7 +8237,7 @@
         <v>30</v>
       </c>
       <c r="C29">
-        <v>5</v>
+        <v>10</v>
       </c>
     </row>
     <row r="30" spans="1:3" x14ac:dyDescent="0.25">
@@ -8248,7 +8248,7 @@
         <v>30</v>
       </c>
       <c r="C30">
-        <v>5</v>
+        <v>10</v>
       </c>
     </row>
     <row r="31" spans="1:3" x14ac:dyDescent="0.25">
@@ -8259,7 +8259,7 @@
         <v>30</v>
       </c>
       <c r="C31">
-        <v>5</v>
+        <v>10</v>
       </c>
     </row>
     <row r="32" spans="1:3" x14ac:dyDescent="0.25">
@@ -8270,7 +8270,7 @@
         <v>30</v>
       </c>
       <c r="C32">
-        <v>5</v>
+        <v>10</v>
       </c>
     </row>
     <row r="33" spans="1:3" x14ac:dyDescent="0.25">
@@ -8281,7 +8281,7 @@
         <v>30</v>
       </c>
       <c r="C33">
-        <v>5</v>
+        <v>10</v>
       </c>
     </row>
     <row r="34" spans="1:3" ht="14.4" thickBot="1" x14ac:dyDescent="0.3">
@@ -8292,7 +8292,7 @@
         <v>30</v>
       </c>
       <c r="C34">
-        <v>5</v>
+        <v>10</v>
       </c>
     </row>
     <row r="35" spans="1:3" x14ac:dyDescent="0.25">
@@ -8303,7 +8303,7 @@
         <v>45</v>
       </c>
       <c r="C35">
-        <v>6</v>
+        <v>10</v>
       </c>
     </row>
     <row r="36" spans="1:3" x14ac:dyDescent="0.25">
@@ -8314,7 +8314,7 @@
         <v>45</v>
       </c>
       <c r="C36">
-        <v>6</v>
+        <v>10</v>
       </c>
     </row>
     <row r="37" spans="1:3" x14ac:dyDescent="0.25">
@@ -8325,7 +8325,7 @@
         <v>45</v>
       </c>
       <c r="C37">
-        <v>6</v>
+        <v>10</v>
       </c>
     </row>
     <row r="38" spans="1:3" x14ac:dyDescent="0.25">
@@ -8336,7 +8336,7 @@
         <v>45</v>
       </c>
       <c r="C38">
-        <v>6</v>
+        <v>10</v>
       </c>
     </row>
     <row r="39" spans="1:3" x14ac:dyDescent="0.25">
@@ -8347,7 +8347,7 @@
         <v>45</v>
       </c>
       <c r="C39">
-        <v>6</v>
+        <v>10</v>
       </c>
     </row>
     <row r="40" spans="1:3" x14ac:dyDescent="0.25">
@@ -8358,7 +8358,7 @@
         <v>45</v>
       </c>
       <c r="C40">
-        <v>6</v>
+        <v>10</v>
       </c>
     </row>
     <row r="41" spans="1:3" x14ac:dyDescent="0.25">
@@ -8369,7 +8369,7 @@
         <v>45</v>
       </c>
       <c r="C41">
-        <v>6</v>
+        <v>10</v>
       </c>
     </row>
     <row r="42" spans="1:3" x14ac:dyDescent="0.25">
@@ -8380,7 +8380,7 @@
         <v>45</v>
       </c>
       <c r="C42">
-        <v>6</v>
+        <v>10</v>
       </c>
     </row>
     <row r="43" spans="1:3" x14ac:dyDescent="0.25">
@@ -8391,7 +8391,7 @@
         <v>45</v>
       </c>
       <c r="C43">
-        <v>6</v>
+        <v>10</v>
       </c>
     </row>
     <row r="44" spans="1:3" x14ac:dyDescent="0.25">
@@ -8402,7 +8402,7 @@
         <v>45</v>
       </c>
       <c r="C44">
-        <v>6</v>
+        <v>10</v>
       </c>
     </row>
     <row r="45" spans="1:3" x14ac:dyDescent="0.25">
@@ -8413,7 +8413,7 @@
         <v>45</v>
       </c>
       <c r="C45">
-        <v>6</v>
+        <v>10</v>
       </c>
     </row>
     <row r="46" spans="1:3" x14ac:dyDescent="0.25">
@@ -8424,7 +8424,7 @@
         <v>45</v>
       </c>
       <c r="C46">
-        <v>6</v>
+        <v>10</v>
       </c>
     </row>
     <row r="47" spans="1:3" x14ac:dyDescent="0.25">
@@ -8435,7 +8435,7 @@
         <v>45</v>
       </c>
       <c r="C47">
-        <v>6</v>
+        <v>10</v>
       </c>
     </row>
     <row r="48" spans="1:3" x14ac:dyDescent="0.25">
@@ -8446,7 +8446,7 @@
         <v>45</v>
       </c>
       <c r="C48">
-        <v>6</v>
+        <v>10</v>
       </c>
     </row>
     <row r="49" spans="1:3" x14ac:dyDescent="0.25">
@@ -8457,7 +8457,7 @@
         <v>45</v>
       </c>
       <c r="C49">
-        <v>6</v>
+        <v>10</v>
       </c>
     </row>
     <row r="50" spans="1:3" x14ac:dyDescent="0.25">
@@ -8589,7 +8589,7 @@
         <v>20</v>
       </c>
       <c r="C61">
-        <v>15</v>
+        <v>10</v>
       </c>
     </row>
   </sheetData>

--- a/case3.xlsx
+++ b/case3.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="26327"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="26626"/>
   <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="E:\JavaProjects\scheduling_of_rfl\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{BB881C6D-3D6A-44A4-A6C5-28D9E0751B4A}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{72FE9D5A-9108-435B-A680-F233E920FDF4}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="4152" yWindow="3036" windowWidth="16440" windowHeight="9420" activeTab="3" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="12072" yWindow="0" windowWidth="10968" windowHeight="12960" activeTab="3" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="process" sheetId="1" r:id="rId1"/>
@@ -23,6 +23,17 @@
   <extLst>
     <ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{140A7094-0E35-4892-8432-C4D2E57EDEB5}">
       <x15:workbookPr chartTrackingRefBase="1"/>
+    </ext>
+    <ext xmlns:xcalcf="http://schemas.microsoft.com/office/spreadsheetml/2018/calcfeatures" uri="{B58B0392-4F1F-4190-BB64-5DF3571DCE5F}">
+      <xcalcf:calcFeatures>
+        <xcalcf:feature name="microsoft.com:RD"/>
+        <xcalcf:feature name="microsoft.com:Single"/>
+        <xcalcf:feature name="microsoft.com:FV"/>
+        <xcalcf:feature name="microsoft.com:CNMTM"/>
+        <xcalcf:feature name="microsoft.com:LET_WF"/>
+        <xcalcf:feature name="microsoft.com:LAMBDA_WF"/>
+        <xcalcf:feature name="microsoft.com:ARRAYTEXT_WF"/>
+      </xcalcf:calcFeatures>
     </ext>
   </extLst>
 </workbook>
@@ -7911,8 +7922,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{017BCED2-D5B8-484B-8E96-FEE5C72F2B8F}">
   <dimension ref="A1:C61"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A45" workbookViewId="0">
-      <selection activeCell="C2" sqref="C2:C61"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="D2" sqref="D2"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="13.8" x14ac:dyDescent="0.25"/>
@@ -7937,10 +7948,10 @@
         <v>21</v>
       </c>
       <c r="B2">
-        <v>66</v>
+        <v>10</v>
       </c>
       <c r="C2">
-        <v>10</v>
+        <v>5</v>
       </c>
     </row>
     <row r="3" spans="1:3" x14ac:dyDescent="0.25">
@@ -7948,10 +7959,10 @@
         <v>28</v>
       </c>
       <c r="B3">
-        <v>66</v>
+        <v>10</v>
       </c>
       <c r="C3">
-        <v>10</v>
+        <v>5</v>
       </c>
     </row>
     <row r="4" spans="1:3" x14ac:dyDescent="0.25">
@@ -7959,10 +7970,10 @@
         <v>22</v>
       </c>
       <c r="B4">
-        <v>60</v>
+        <v>10</v>
       </c>
       <c r="C4">
-        <v>10</v>
+        <v>5</v>
       </c>
     </row>
     <row r="5" spans="1:3" x14ac:dyDescent="0.25">
@@ -7970,10 +7981,10 @@
         <v>29</v>
       </c>
       <c r="B5">
-        <v>66</v>
+        <v>10</v>
       </c>
       <c r="C5">
-        <v>10</v>
+        <v>5</v>
       </c>
     </row>
     <row r="6" spans="1:3" x14ac:dyDescent="0.25">
@@ -7981,10 +7992,10 @@
         <v>20</v>
       </c>
       <c r="B6">
-        <v>60</v>
+        <v>10</v>
       </c>
       <c r="C6">
-        <v>10</v>
+        <v>5</v>
       </c>
     </row>
     <row r="7" spans="1:3" x14ac:dyDescent="0.25">
@@ -7992,10 +8003,10 @@
         <v>30</v>
       </c>
       <c r="B7">
-        <v>60</v>
+        <v>10</v>
       </c>
       <c r="C7">
-        <v>10</v>
+        <v>5</v>
       </c>
     </row>
     <row r="8" spans="1:3" x14ac:dyDescent="0.25">
@@ -8003,10 +8014,10 @@
         <v>31</v>
       </c>
       <c r="B8">
-        <v>60</v>
+        <v>10</v>
       </c>
       <c r="C8">
-        <v>10</v>
+        <v>5</v>
       </c>
     </row>
     <row r="9" spans="1:3" ht="14.4" thickBot="1" x14ac:dyDescent="0.3">
@@ -8014,10 +8025,10 @@
         <v>10</v>
       </c>
       <c r="B9">
-        <v>60</v>
+        <v>10</v>
       </c>
       <c r="C9">
-        <v>10</v>
+        <v>5</v>
       </c>
     </row>
     <row r="10" spans="1:3" x14ac:dyDescent="0.25">
@@ -8025,10 +8036,10 @@
         <v>33</v>
       </c>
       <c r="B10">
-        <v>66</v>
+        <v>20</v>
       </c>
       <c r="C10">
-        <v>10</v>
+        <v>5</v>
       </c>
     </row>
     <row r="11" spans="1:3" x14ac:dyDescent="0.25">
@@ -8036,10 +8047,10 @@
         <v>34</v>
       </c>
       <c r="B11">
-        <v>60</v>
+        <v>20</v>
       </c>
       <c r="C11">
-        <v>10</v>
+        <v>5</v>
       </c>
     </row>
     <row r="12" spans="1:3" x14ac:dyDescent="0.25">
@@ -8047,10 +8058,10 @@
         <v>35</v>
       </c>
       <c r="B12">
-        <v>60</v>
+        <v>20</v>
       </c>
       <c r="C12">
-        <v>10</v>
+        <v>5</v>
       </c>
     </row>
     <row r="13" spans="1:3" x14ac:dyDescent="0.25">
@@ -8058,10 +8069,10 @@
         <v>0</v>
       </c>
       <c r="B13">
-        <v>60</v>
+        <v>20</v>
       </c>
       <c r="C13">
-        <v>10</v>
+        <v>5</v>
       </c>
     </row>
     <row r="14" spans="1:3" x14ac:dyDescent="0.25">
@@ -8069,10 +8080,10 @@
         <v>36</v>
       </c>
       <c r="B14">
-        <v>60</v>
+        <v>20</v>
       </c>
       <c r="C14">
-        <v>10</v>
+        <v>5</v>
       </c>
     </row>
     <row r="15" spans="1:3" x14ac:dyDescent="0.25">
@@ -8080,10 +8091,10 @@
         <v>37</v>
       </c>
       <c r="B15">
-        <v>60</v>
+        <v>20</v>
       </c>
       <c r="C15">
-        <v>10</v>
+        <v>5</v>
       </c>
     </row>
     <row r="16" spans="1:3" x14ac:dyDescent="0.25">
@@ -8091,10 +8102,10 @@
         <v>38</v>
       </c>
       <c r="B16">
-        <v>60</v>
+        <v>20</v>
       </c>
       <c r="C16">
-        <v>10</v>
+        <v>5</v>
       </c>
     </row>
     <row r="17" spans="1:3" x14ac:dyDescent="0.25">
@@ -8102,10 +8113,10 @@
         <v>1</v>
       </c>
       <c r="B17">
-        <v>60</v>
+        <v>20</v>
       </c>
       <c r="C17">
-        <v>10</v>
+        <v>5</v>
       </c>
     </row>
     <row r="18" spans="1:3" ht="14.4" thickBot="1" x14ac:dyDescent="0.3">
@@ -8113,10 +8124,10 @@
         <v>32</v>
       </c>
       <c r="B18">
-        <v>60</v>
+        <v>20</v>
       </c>
       <c r="C18">
-        <v>10</v>
+        <v>5</v>
       </c>
     </row>
     <row r="19" spans="1:3" x14ac:dyDescent="0.25">
@@ -8124,10 +8135,10 @@
         <v>53</v>
       </c>
       <c r="B19">
-        <v>30</v>
+        <v>20</v>
       </c>
       <c r="C19">
-        <v>10</v>
+        <v>5</v>
       </c>
     </row>
     <row r="20" spans="1:3" x14ac:dyDescent="0.25">
@@ -8135,10 +8146,10 @@
         <v>39</v>
       </c>
       <c r="B20">
-        <v>30</v>
+        <v>20</v>
       </c>
       <c r="C20">
-        <v>10</v>
+        <v>5</v>
       </c>
     </row>
     <row r="21" spans="1:3" x14ac:dyDescent="0.25">
@@ -8146,10 +8157,10 @@
         <v>40</v>
       </c>
       <c r="B21">
-        <v>30</v>
+        <v>20</v>
       </c>
       <c r="C21">
-        <v>10</v>
+        <v>5</v>
       </c>
     </row>
     <row r="22" spans="1:3" x14ac:dyDescent="0.25">
@@ -8157,10 +8168,10 @@
         <v>41</v>
       </c>
       <c r="B22">
-        <v>30</v>
+        <v>20</v>
       </c>
       <c r="C22">
-        <v>10</v>
+        <v>5</v>
       </c>
     </row>
     <row r="23" spans="1:3" x14ac:dyDescent="0.25">
@@ -8168,10 +8179,10 @@
         <v>42</v>
       </c>
       <c r="B23">
-        <v>30</v>
+        <v>20</v>
       </c>
       <c r="C23">
-        <v>10</v>
+        <v>5</v>
       </c>
     </row>
     <row r="24" spans="1:3" x14ac:dyDescent="0.25">
@@ -8179,10 +8190,10 @@
         <v>43</v>
       </c>
       <c r="B24">
-        <v>30</v>
+        <v>20</v>
       </c>
       <c r="C24">
-        <v>10</v>
+        <v>5</v>
       </c>
     </row>
     <row r="25" spans="1:3" x14ac:dyDescent="0.25">
@@ -8190,10 +8201,10 @@
         <v>44</v>
       </c>
       <c r="B25">
-        <v>30</v>
+        <v>20</v>
       </c>
       <c r="C25">
-        <v>10</v>
+        <v>5</v>
       </c>
     </row>
     <row r="26" spans="1:3" x14ac:dyDescent="0.25">
@@ -8201,10 +8212,10 @@
         <v>45</v>
       </c>
       <c r="B26">
-        <v>30</v>
+        <v>20</v>
       </c>
       <c r="C26">
-        <v>10</v>
+        <v>5</v>
       </c>
     </row>
     <row r="27" spans="1:3" x14ac:dyDescent="0.25">
@@ -8212,10 +8223,10 @@
         <v>46</v>
       </c>
       <c r="B27">
-        <v>30</v>
+        <v>20</v>
       </c>
       <c r="C27">
-        <v>10</v>
+        <v>5</v>
       </c>
     </row>
     <row r="28" spans="1:3" x14ac:dyDescent="0.25">
@@ -8223,10 +8234,10 @@
         <v>47</v>
       </c>
       <c r="B28">
-        <v>30</v>
+        <v>20</v>
       </c>
       <c r="C28">
-        <v>10</v>
+        <v>5</v>
       </c>
     </row>
     <row r="29" spans="1:3" x14ac:dyDescent="0.25">
@@ -8234,10 +8245,10 @@
         <v>48</v>
       </c>
       <c r="B29">
-        <v>30</v>
+        <v>20</v>
       </c>
       <c r="C29">
-        <v>10</v>
+        <v>5</v>
       </c>
     </row>
     <row r="30" spans="1:3" x14ac:dyDescent="0.25">
@@ -8245,10 +8256,10 @@
         <v>49</v>
       </c>
       <c r="B30">
-        <v>30</v>
+        <v>20</v>
       </c>
       <c r="C30">
-        <v>10</v>
+        <v>5</v>
       </c>
     </row>
     <row r="31" spans="1:3" x14ac:dyDescent="0.25">
@@ -8256,10 +8267,10 @@
         <v>51</v>
       </c>
       <c r="B31">
-        <v>30</v>
+        <v>20</v>
       </c>
       <c r="C31">
-        <v>10</v>
+        <v>5</v>
       </c>
     </row>
     <row r="32" spans="1:3" x14ac:dyDescent="0.25">
@@ -8267,10 +8278,10 @@
         <v>54</v>
       </c>
       <c r="B32">
-        <v>30</v>
+        <v>20</v>
       </c>
       <c r="C32">
-        <v>10</v>
+        <v>5</v>
       </c>
     </row>
     <row r="33" spans="1:3" x14ac:dyDescent="0.25">
@@ -8278,10 +8289,10 @@
         <v>50</v>
       </c>
       <c r="B33">
-        <v>30</v>
+        <v>20</v>
       </c>
       <c r="C33">
-        <v>10</v>
+        <v>5</v>
       </c>
     </row>
     <row r="34" spans="1:3" ht="14.4" thickBot="1" x14ac:dyDescent="0.3">
@@ -8289,10 +8300,10 @@
         <v>52</v>
       </c>
       <c r="B34">
-        <v>30</v>
+        <v>20</v>
       </c>
       <c r="C34">
-        <v>10</v>
+        <v>5</v>
       </c>
     </row>
     <row r="35" spans="1:3" x14ac:dyDescent="0.25">
@@ -8300,10 +8311,10 @@
         <v>1</v>
       </c>
       <c r="B35">
-        <v>45</v>
+        <v>50</v>
       </c>
       <c r="C35">
-        <v>10</v>
+        <v>7</v>
       </c>
     </row>
     <row r="36" spans="1:3" x14ac:dyDescent="0.25">
@@ -8311,10 +8322,10 @@
         <v>2</v>
       </c>
       <c r="B36">
-        <v>45</v>
+        <v>50</v>
       </c>
       <c r="C36">
-        <v>10</v>
+        <v>7</v>
       </c>
     </row>
     <row r="37" spans="1:3" x14ac:dyDescent="0.25">
@@ -8322,10 +8333,10 @@
         <v>3</v>
       </c>
       <c r="B37">
-        <v>45</v>
+        <v>50</v>
       </c>
       <c r="C37">
-        <v>10</v>
+        <v>7</v>
       </c>
     </row>
     <row r="38" spans="1:3" x14ac:dyDescent="0.25">
@@ -8333,10 +8344,10 @@
         <v>4</v>
       </c>
       <c r="B38">
-        <v>45</v>
+        <v>50</v>
       </c>
       <c r="C38">
-        <v>10</v>
+        <v>7</v>
       </c>
     </row>
     <row r="39" spans="1:3" x14ac:dyDescent="0.25">
@@ -8344,10 +8355,10 @@
         <v>5</v>
       </c>
       <c r="B39">
-        <v>45</v>
+        <v>50</v>
       </c>
       <c r="C39">
-        <v>10</v>
+        <v>7</v>
       </c>
     </row>
     <row r="40" spans="1:3" x14ac:dyDescent="0.25">
@@ -8355,10 +8366,10 @@
         <v>6</v>
       </c>
       <c r="B40">
-        <v>45</v>
+        <v>50</v>
       </c>
       <c r="C40">
-        <v>10</v>
+        <v>7</v>
       </c>
     </row>
     <row r="41" spans="1:3" x14ac:dyDescent="0.25">
@@ -8366,10 +8377,10 @@
         <v>7</v>
       </c>
       <c r="B41">
-        <v>45</v>
+        <v>50</v>
       </c>
       <c r="C41">
-        <v>10</v>
+        <v>7</v>
       </c>
     </row>
     <row r="42" spans="1:3" x14ac:dyDescent="0.25">
@@ -8377,10 +8388,10 @@
         <v>8</v>
       </c>
       <c r="B42">
-        <v>45</v>
+        <v>50</v>
       </c>
       <c r="C42">
-        <v>10</v>
+        <v>7</v>
       </c>
     </row>
     <row r="43" spans="1:3" x14ac:dyDescent="0.25">
@@ -8388,10 +8399,10 @@
         <v>9</v>
       </c>
       <c r="B43">
-        <v>45</v>
+        <v>50</v>
       </c>
       <c r="C43">
-        <v>10</v>
+        <v>7</v>
       </c>
     </row>
     <row r="44" spans="1:3" x14ac:dyDescent="0.25">
@@ -8399,10 +8410,10 @@
         <v>10</v>
       </c>
       <c r="B44">
-        <v>45</v>
+        <v>50</v>
       </c>
       <c r="C44">
-        <v>10</v>
+        <v>7</v>
       </c>
     </row>
     <row r="45" spans="1:3" x14ac:dyDescent="0.25">
@@ -8410,10 +8421,10 @@
         <v>11</v>
       </c>
       <c r="B45">
-        <v>45</v>
+        <v>50</v>
       </c>
       <c r="C45">
-        <v>10</v>
+        <v>7</v>
       </c>
     </row>
     <row r="46" spans="1:3" x14ac:dyDescent="0.25">
@@ -8421,10 +8432,10 @@
         <v>12</v>
       </c>
       <c r="B46">
-        <v>45</v>
+        <v>50</v>
       </c>
       <c r="C46">
-        <v>10</v>
+        <v>7</v>
       </c>
     </row>
     <row r="47" spans="1:3" x14ac:dyDescent="0.25">
@@ -8432,10 +8443,10 @@
         <v>13</v>
       </c>
       <c r="B47">
-        <v>45</v>
+        <v>50</v>
       </c>
       <c r="C47">
-        <v>10</v>
+        <v>7</v>
       </c>
     </row>
     <row r="48" spans="1:3" x14ac:dyDescent="0.25">
@@ -8443,10 +8454,10 @@
         <v>14</v>
       </c>
       <c r="B48">
-        <v>45</v>
+        <v>50</v>
       </c>
       <c r="C48">
-        <v>10</v>
+        <v>7</v>
       </c>
     </row>
     <row r="49" spans="1:3" x14ac:dyDescent="0.25">
@@ -8454,10 +8465,10 @@
         <v>15</v>
       </c>
       <c r="B49">
-        <v>45</v>
+        <v>50</v>
       </c>
       <c r="C49">
-        <v>10</v>
+        <v>7</v>
       </c>
     </row>
     <row r="50" spans="1:3" x14ac:dyDescent="0.25">
@@ -8465,10 +8476,10 @@
         <v>16</v>
       </c>
       <c r="B50">
-        <v>25</v>
+        <v>50</v>
       </c>
       <c r="C50">
-        <v>10</v>
+        <v>7</v>
       </c>
     </row>
     <row r="51" spans="1:3" x14ac:dyDescent="0.25">
@@ -8476,10 +8487,10 @@
         <v>17</v>
       </c>
       <c r="B51">
-        <v>25</v>
+        <v>50</v>
       </c>
       <c r="C51">
-        <v>10</v>
+        <v>7</v>
       </c>
     </row>
     <row r="52" spans="1:3" x14ac:dyDescent="0.25">
@@ -8487,10 +8498,10 @@
         <v>18</v>
       </c>
       <c r="B52">
-        <v>25</v>
+        <v>50</v>
       </c>
       <c r="C52">
-        <v>10</v>
+        <v>7</v>
       </c>
     </row>
     <row r="53" spans="1:3" x14ac:dyDescent="0.25">
@@ -8498,10 +8509,10 @@
         <v>19</v>
       </c>
       <c r="B53">
-        <v>25</v>
+        <v>50</v>
       </c>
       <c r="C53">
-        <v>10</v>
+        <v>7</v>
       </c>
     </row>
     <row r="54" spans="1:3" x14ac:dyDescent="0.25">
@@ -8509,10 +8520,10 @@
         <v>20</v>
       </c>
       <c r="B54">
-        <v>25</v>
+        <v>50</v>
       </c>
       <c r="C54">
-        <v>10</v>
+        <v>7</v>
       </c>
     </row>
     <row r="55" spans="1:3" x14ac:dyDescent="0.25">
@@ -8520,10 +8531,10 @@
         <v>21</v>
       </c>
       <c r="B55">
-        <v>25</v>
+        <v>50</v>
       </c>
       <c r="C55">
-        <v>10</v>
+        <v>7</v>
       </c>
     </row>
     <row r="56" spans="1:3" x14ac:dyDescent="0.25">
@@ -8531,10 +8542,10 @@
         <v>22</v>
       </c>
       <c r="B56">
-        <v>25</v>
+        <v>50</v>
       </c>
       <c r="C56">
-        <v>10</v>
+        <v>7</v>
       </c>
     </row>
     <row r="57" spans="1:3" x14ac:dyDescent="0.25">
@@ -8542,10 +8553,10 @@
         <v>23</v>
       </c>
       <c r="B57">
-        <v>25</v>
+        <v>50</v>
       </c>
       <c r="C57">
-        <v>10</v>
+        <v>7</v>
       </c>
     </row>
     <row r="58" spans="1:3" x14ac:dyDescent="0.25">
@@ -8553,10 +8564,10 @@
         <v>24</v>
       </c>
       <c r="B58">
-        <v>25</v>
+        <v>50</v>
       </c>
       <c r="C58">
-        <v>10</v>
+        <v>7</v>
       </c>
     </row>
     <row r="59" spans="1:3" x14ac:dyDescent="0.25">
@@ -8564,10 +8575,10 @@
         <v>25</v>
       </c>
       <c r="B59">
-        <v>25</v>
+        <v>50</v>
       </c>
       <c r="C59">
-        <v>10</v>
+        <v>7</v>
       </c>
     </row>
     <row r="60" spans="1:3" x14ac:dyDescent="0.25">
@@ -8575,10 +8586,10 @@
         <v>26</v>
       </c>
       <c r="B60">
-        <v>25</v>
+        <v>50</v>
       </c>
       <c r="C60">
-        <v>10</v>
+        <v>7</v>
       </c>
     </row>
     <row r="61" spans="1:3" x14ac:dyDescent="0.25">
@@ -8586,10 +8597,10 @@
         <v>27</v>
       </c>
       <c r="B61">
-        <v>20</v>
+        <v>50</v>
       </c>
       <c r="C61">
-        <v>10</v>
+        <v>7</v>
       </c>
     </row>
   </sheetData>
